--- a/爬取美团酒店评论/全国酒店信息/天津市酒店的基本信息.xlsx
+++ b/爬取美团酒店评论/全国酒店信息/天津市酒店的基本信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96075\Desktop\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96075\Desktop\全国酒店信息\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A87A75-B05B-4778-AED3-AAFB95361683}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D07958-B656-4591-AB23-1255E2731A62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7348,7 +7348,7 @@
   <dimension ref="A1:H1151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
